--- a/data_requests/df_dancehall.xlsx
+++ b/data_requests/df_dancehall.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmbarki/Documents/Doctorat/Publications/Article 2/Data/Code/data_requests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D4432-3687-DB4B-8628-5FBB4F831507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="169">
   <si>
     <t>playlist_name</t>
   </si>
@@ -73,21 +79,6 @@
     <t>tempo</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>track_href</t>
-  </si>
-  <si>
-    <t>analysis_url</t>
-  </si>
-  <si>
     <t>duration_ms</t>
   </si>
   <si>
@@ -536,724 +527,13 @@
   </si>
   <si>
     <t>DJ Private Ryan</t>
-  </si>
-  <si>
-    <t>audio_features</t>
-  </si>
-  <si>
-    <t>3TP4bqNjBsCma8WJvkhYtP</t>
-  </si>
-  <si>
-    <t>3HhdRHgiGbSH8rcGhJ0PGW</t>
-  </si>
-  <si>
-    <t>4fmwyrPZ8cLFxOfchNXPf5</t>
-  </si>
-  <si>
-    <t>34PxcvkeNjwzad9j08HkYC</t>
-  </si>
-  <si>
-    <t>3Iq1wvKVm62usdyRYSpgll</t>
-  </si>
-  <si>
-    <t>12TP8c0mlvpZpKo1YhVcKc</t>
-  </si>
-  <si>
-    <t>4YkuP5Y0dOighZCxkoOtg2</t>
-  </si>
-  <si>
-    <t>3PI8rjpnZRJxxM2icDEbpB</t>
-  </si>
-  <si>
-    <t>1wmteKWEgIrPjlR6mDjPkE</t>
-  </si>
-  <si>
-    <t>0kR3Ffq9YANdfXyhTV47hP</t>
-  </si>
-  <si>
-    <t>7piySJTKBIshzRFrUtBLlo</t>
-  </si>
-  <si>
-    <t>5xqpmwMBP55ZaPFlxhs4vu</t>
-  </si>
-  <si>
-    <t>3bZaDC1VEb1YpIpWu8ks5H</t>
-  </si>
-  <si>
-    <t>4OFdzr4mlBC7YK8XwJqwIx</t>
-  </si>
-  <si>
-    <t>4hKTs4G3WNYRKRAylEwbdY</t>
-  </si>
-  <si>
-    <t>5iQDeHszlApK5qgRaqEBTv</t>
-  </si>
-  <si>
-    <t>5EkRdaBralVKSDvxtgeyOg</t>
-  </si>
-  <si>
-    <t>6UrcpxooHisuiZHZUa6cwU</t>
-  </si>
-  <si>
-    <t>74F3DNzHUSrJ6sNz4YkFWe</t>
-  </si>
-  <si>
-    <t>40KQawdVbgW7q1JXyhB4GZ</t>
-  </si>
-  <si>
-    <t>1gzoAtrRQlcrRHgRc9K4OC</t>
-  </si>
-  <si>
-    <t>5eNR7uRphqgPmR5bD6IyLg</t>
-  </si>
-  <si>
-    <t>1fOEsuhzqsvMyAtXiQIUyl</t>
-  </si>
-  <si>
-    <t>4fYB2DqsRfxBlANK6gxVVC</t>
-  </si>
-  <si>
-    <t>0BtgOXvhaWt8AZizp6Jqt1</t>
-  </si>
-  <si>
-    <t>1yBwSbIBJGXJGSEO9xRafp</t>
-  </si>
-  <si>
-    <t>5h7UTFQiHqJxK7lLzMnS6S</t>
-  </si>
-  <si>
-    <t>7bErUZsA8PjlWoubWJOAZr</t>
-  </si>
-  <si>
-    <t>2T9IHcNmJYm8KlHR0IFfkF</t>
-  </si>
-  <si>
-    <t>5PkP7Qcu0ZRYf0xZN4nnW0</t>
-  </si>
-  <si>
-    <t>25sC1sdLyyqDKRWA79Wuid</t>
-  </si>
-  <si>
-    <t>31pjhmSv0FaqsgmDA4MUYM</t>
-  </si>
-  <si>
-    <t>06ZEPQuntYP0MAC4D1nztv</t>
-  </si>
-  <si>
-    <t>20DjK18TiILB3N61HUQKFc</t>
-  </si>
-  <si>
-    <t>0Ge3TTT92PENBkEKxm1pKf</t>
-  </si>
-  <si>
-    <t>1OSQ76fIK7bR3OxbFTwj6h</t>
-  </si>
-  <si>
-    <t>4vPXWwTTxFJDx6ze8ocf8s</t>
-  </si>
-  <si>
-    <t>66BSLhzGVYcUUI8fTA6mbl</t>
-  </si>
-  <si>
-    <t>7dx8Z81E84h6XR7utcDZr8</t>
-  </si>
-  <si>
-    <t>6LwbLdUGrzO2BLjJu4nz7v</t>
-  </si>
-  <si>
-    <t>5zhsPGBmNDFQtjhsziS0t1</t>
-  </si>
-  <si>
-    <t>3r5fGWOFozVnOPW4FSdjzP</t>
-  </si>
-  <si>
-    <t>5UE2ij3ca8bF3iWP5Kdt6q</t>
-  </si>
-  <si>
-    <t>7l6HLS77xO676yIOveWq9a</t>
-  </si>
-  <si>
-    <t>2plWOd8BgfD86Dx3o7Cwc9</t>
-  </si>
-  <si>
-    <t>0KD1RhPkWYCjjz9EGYJ0lC</t>
-  </si>
-  <si>
-    <t>3inCj3ZQ7RRqtvH0vG5wbz</t>
-  </si>
-  <si>
-    <t>3oWHkOKSrzVNNBMGjkOQnX</t>
-  </si>
-  <si>
-    <t>60JbCdnGtjktguVEToZW6N</t>
-  </si>
-  <si>
-    <t>23ESifJg3CWLdYrCAL13C3</t>
-  </si>
-  <si>
-    <t>3okMhvztfxK8m0RJ67n2yt</t>
-  </si>
-  <si>
-    <t>1zH4ohNBrmrIHxDiEio1n9</t>
-  </si>
-  <si>
-    <t>4zg38Wr08ig2EEkNC7Mm29</t>
-  </si>
-  <si>
-    <t>0ns1T6tt2DuQi5bCWfajBP</t>
-  </si>
-  <si>
-    <t>5RuFeFXb4fmGiNyxedd34J</t>
-  </si>
-  <si>
-    <t>0LeRnJGx13yg3jm1h2LObA</t>
-  </si>
-  <si>
-    <t>1Uee0NFQjcpKDHi1BlXHcw</t>
-  </si>
-  <si>
-    <t>5VKLvoBIU8nJJwqWo2mQyG</t>
-  </si>
-  <si>
-    <t>6Yb7jQk2hbILD9kHQnpoaH</t>
-  </si>
-  <si>
-    <t>spotify:track:3TP4bqNjBsCma8WJvkhYtP</t>
-  </si>
-  <si>
-    <t>spotify:track:3HhdRHgiGbSH8rcGhJ0PGW</t>
-  </si>
-  <si>
-    <t>spotify:track:4fmwyrPZ8cLFxOfchNXPf5</t>
-  </si>
-  <si>
-    <t>spotify:track:34PxcvkeNjwzad9j08HkYC</t>
-  </si>
-  <si>
-    <t>spotify:track:3Iq1wvKVm62usdyRYSpgll</t>
-  </si>
-  <si>
-    <t>spotify:track:12TP8c0mlvpZpKo1YhVcKc</t>
-  </si>
-  <si>
-    <t>spotify:track:4YkuP5Y0dOighZCxkoOtg2</t>
-  </si>
-  <si>
-    <t>spotify:track:3PI8rjpnZRJxxM2icDEbpB</t>
-  </si>
-  <si>
-    <t>spotify:track:1wmteKWEgIrPjlR6mDjPkE</t>
-  </si>
-  <si>
-    <t>spotify:track:0kR3Ffq9YANdfXyhTV47hP</t>
-  </si>
-  <si>
-    <t>spotify:track:7piySJTKBIshzRFrUtBLlo</t>
-  </si>
-  <si>
-    <t>spotify:track:5xqpmwMBP55ZaPFlxhs4vu</t>
-  </si>
-  <si>
-    <t>spotify:track:3bZaDC1VEb1YpIpWu8ks5H</t>
-  </si>
-  <si>
-    <t>spotify:track:4OFdzr4mlBC7YK8XwJqwIx</t>
-  </si>
-  <si>
-    <t>spotify:track:4hKTs4G3WNYRKRAylEwbdY</t>
-  </si>
-  <si>
-    <t>spotify:track:5iQDeHszlApK5qgRaqEBTv</t>
-  </si>
-  <si>
-    <t>spotify:track:5EkRdaBralVKSDvxtgeyOg</t>
-  </si>
-  <si>
-    <t>spotify:track:6UrcpxooHisuiZHZUa6cwU</t>
-  </si>
-  <si>
-    <t>spotify:track:74F3DNzHUSrJ6sNz4YkFWe</t>
-  </si>
-  <si>
-    <t>spotify:track:40KQawdVbgW7q1JXyhB4GZ</t>
-  </si>
-  <si>
-    <t>spotify:track:1gzoAtrRQlcrRHgRc9K4OC</t>
-  </si>
-  <si>
-    <t>spotify:track:5eNR7uRphqgPmR5bD6IyLg</t>
-  </si>
-  <si>
-    <t>spotify:track:1fOEsuhzqsvMyAtXiQIUyl</t>
-  </si>
-  <si>
-    <t>spotify:track:4fYB2DqsRfxBlANK6gxVVC</t>
-  </si>
-  <si>
-    <t>spotify:track:0BtgOXvhaWt8AZizp6Jqt1</t>
-  </si>
-  <si>
-    <t>spotify:track:1yBwSbIBJGXJGSEO9xRafp</t>
-  </si>
-  <si>
-    <t>spotify:track:5h7UTFQiHqJxK7lLzMnS6S</t>
-  </si>
-  <si>
-    <t>spotify:track:7bErUZsA8PjlWoubWJOAZr</t>
-  </si>
-  <si>
-    <t>spotify:track:2T9IHcNmJYm8KlHR0IFfkF</t>
-  </si>
-  <si>
-    <t>spotify:track:5PkP7Qcu0ZRYf0xZN4nnW0</t>
-  </si>
-  <si>
-    <t>spotify:track:25sC1sdLyyqDKRWA79Wuid</t>
-  </si>
-  <si>
-    <t>spotify:track:31pjhmSv0FaqsgmDA4MUYM</t>
-  </si>
-  <si>
-    <t>spotify:track:06ZEPQuntYP0MAC4D1nztv</t>
-  </si>
-  <si>
-    <t>spotify:track:20DjK18TiILB3N61HUQKFc</t>
-  </si>
-  <si>
-    <t>spotify:track:0Ge3TTT92PENBkEKxm1pKf</t>
-  </si>
-  <si>
-    <t>spotify:track:1OSQ76fIK7bR3OxbFTwj6h</t>
-  </si>
-  <si>
-    <t>spotify:track:4vPXWwTTxFJDx6ze8ocf8s</t>
-  </si>
-  <si>
-    <t>spotify:track:66BSLhzGVYcUUI8fTA6mbl</t>
-  </si>
-  <si>
-    <t>spotify:track:7dx8Z81E84h6XR7utcDZr8</t>
-  </si>
-  <si>
-    <t>spotify:track:6LwbLdUGrzO2BLjJu4nz7v</t>
-  </si>
-  <si>
-    <t>spotify:track:5zhsPGBmNDFQtjhsziS0t1</t>
-  </si>
-  <si>
-    <t>spotify:track:3r5fGWOFozVnOPW4FSdjzP</t>
-  </si>
-  <si>
-    <t>spotify:track:5UE2ij3ca8bF3iWP5Kdt6q</t>
-  </si>
-  <si>
-    <t>spotify:track:7l6HLS77xO676yIOveWq9a</t>
-  </si>
-  <si>
-    <t>spotify:track:2plWOd8BgfD86Dx3o7Cwc9</t>
-  </si>
-  <si>
-    <t>spotify:track:0KD1RhPkWYCjjz9EGYJ0lC</t>
-  </si>
-  <si>
-    <t>spotify:track:3inCj3ZQ7RRqtvH0vG5wbz</t>
-  </si>
-  <si>
-    <t>spotify:track:3oWHkOKSrzVNNBMGjkOQnX</t>
-  </si>
-  <si>
-    <t>spotify:track:60JbCdnGtjktguVEToZW6N</t>
-  </si>
-  <si>
-    <t>spotify:track:23ESifJg3CWLdYrCAL13C3</t>
-  </si>
-  <si>
-    <t>spotify:track:3okMhvztfxK8m0RJ67n2yt</t>
-  </si>
-  <si>
-    <t>spotify:track:1zH4ohNBrmrIHxDiEio1n9</t>
-  </si>
-  <si>
-    <t>spotify:track:4zg38Wr08ig2EEkNC7Mm29</t>
-  </si>
-  <si>
-    <t>spotify:track:0ns1T6tt2DuQi5bCWfajBP</t>
-  </si>
-  <si>
-    <t>spotify:track:5RuFeFXb4fmGiNyxedd34J</t>
-  </si>
-  <si>
-    <t>spotify:track:0LeRnJGx13yg3jm1h2LObA</t>
-  </si>
-  <si>
-    <t>spotify:track:1Uee0NFQjcpKDHi1BlXHcw</t>
-  </si>
-  <si>
-    <t>spotify:track:5VKLvoBIU8nJJwqWo2mQyG</t>
-  </si>
-  <si>
-    <t>spotify:track:6Yb7jQk2hbILD9kHQnpoaH</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3TP4bqNjBsCma8WJvkhYtP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3HhdRHgiGbSH8rcGhJ0PGW</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4fmwyrPZ8cLFxOfchNXPf5</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/34PxcvkeNjwzad9j08HkYC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3Iq1wvKVm62usdyRYSpgll</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/12TP8c0mlvpZpKo1YhVcKc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4YkuP5Y0dOighZCxkoOtg2</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3PI8rjpnZRJxxM2icDEbpB</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1wmteKWEgIrPjlR6mDjPkE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0kR3Ffq9YANdfXyhTV47hP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7piySJTKBIshzRFrUtBLlo</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5xqpmwMBP55ZaPFlxhs4vu</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3bZaDC1VEb1YpIpWu8ks5H</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4OFdzr4mlBC7YK8XwJqwIx</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4hKTs4G3WNYRKRAylEwbdY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5iQDeHszlApK5qgRaqEBTv</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5EkRdaBralVKSDvxtgeyOg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6UrcpxooHisuiZHZUa6cwU</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/74F3DNzHUSrJ6sNz4YkFWe</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/40KQawdVbgW7q1JXyhB4GZ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1gzoAtrRQlcrRHgRc9K4OC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5eNR7uRphqgPmR5bD6IyLg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1fOEsuhzqsvMyAtXiQIUyl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4fYB2DqsRfxBlANK6gxVVC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0BtgOXvhaWt8AZizp6Jqt1</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1yBwSbIBJGXJGSEO9xRafp</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5h7UTFQiHqJxK7lLzMnS6S</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7bErUZsA8PjlWoubWJOAZr</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2T9IHcNmJYm8KlHR0IFfkF</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5PkP7Qcu0ZRYf0xZN4nnW0</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/25sC1sdLyyqDKRWA79Wuid</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/31pjhmSv0FaqsgmDA4MUYM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/06ZEPQuntYP0MAC4D1nztv</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/20DjK18TiILB3N61HUQKFc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0Ge3TTT92PENBkEKxm1pKf</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1OSQ76fIK7bR3OxbFTwj6h</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4vPXWwTTxFJDx6ze8ocf8s</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/66BSLhzGVYcUUI8fTA6mbl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7dx8Z81E84h6XR7utcDZr8</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6LwbLdUGrzO2BLjJu4nz7v</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5zhsPGBmNDFQtjhsziS0t1</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3r5fGWOFozVnOPW4FSdjzP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5UE2ij3ca8bF3iWP5Kdt6q</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/7l6HLS77xO676yIOveWq9a</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/2plWOd8BgfD86Dx3o7Cwc9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0KD1RhPkWYCjjz9EGYJ0lC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3inCj3ZQ7RRqtvH0vG5wbz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3oWHkOKSrzVNNBMGjkOQnX</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/60JbCdnGtjktguVEToZW6N</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/23ESifJg3CWLdYrCAL13C3</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3okMhvztfxK8m0RJ67n2yt</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1zH4ohNBrmrIHxDiEio1n9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/4zg38Wr08ig2EEkNC7Mm29</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0ns1T6tt2DuQi5bCWfajBP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5RuFeFXb4fmGiNyxedd34J</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/0LeRnJGx13yg3jm1h2LObA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/1Uee0NFQjcpKDHi1BlXHcw</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/5VKLvoBIU8nJJwqWo2mQyG</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6Yb7jQk2hbILD9kHQnpoaH</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3TP4bqNjBsCma8WJvkhYtP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3HhdRHgiGbSH8rcGhJ0PGW</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4fmwyrPZ8cLFxOfchNXPf5</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/34PxcvkeNjwzad9j08HkYC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3Iq1wvKVm62usdyRYSpgll</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/12TP8c0mlvpZpKo1YhVcKc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4YkuP5Y0dOighZCxkoOtg2</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3PI8rjpnZRJxxM2icDEbpB</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1wmteKWEgIrPjlR6mDjPkE</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0kR3Ffq9YANdfXyhTV47hP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7piySJTKBIshzRFrUtBLlo</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5xqpmwMBP55ZaPFlxhs4vu</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3bZaDC1VEb1YpIpWu8ks5H</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4OFdzr4mlBC7YK8XwJqwIx</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4hKTs4G3WNYRKRAylEwbdY</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5iQDeHszlApK5qgRaqEBTv</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5EkRdaBralVKSDvxtgeyOg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6UrcpxooHisuiZHZUa6cwU</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/74F3DNzHUSrJ6sNz4YkFWe</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/40KQawdVbgW7q1JXyhB4GZ</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1gzoAtrRQlcrRHgRc9K4OC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5eNR7uRphqgPmR5bD6IyLg</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1fOEsuhzqsvMyAtXiQIUyl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4fYB2DqsRfxBlANK6gxVVC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0BtgOXvhaWt8AZizp6Jqt1</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1yBwSbIBJGXJGSEO9xRafp</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5h7UTFQiHqJxK7lLzMnS6S</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7bErUZsA8PjlWoubWJOAZr</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2T9IHcNmJYm8KlHR0IFfkF</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5PkP7Qcu0ZRYf0xZN4nnW0</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/25sC1sdLyyqDKRWA79Wuid</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/31pjhmSv0FaqsgmDA4MUYM</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/06ZEPQuntYP0MAC4D1nztv</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/20DjK18TiILB3N61HUQKFc</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0Ge3TTT92PENBkEKxm1pKf</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1OSQ76fIK7bR3OxbFTwj6h</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4vPXWwTTxFJDx6ze8ocf8s</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/66BSLhzGVYcUUI8fTA6mbl</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7dx8Z81E84h6XR7utcDZr8</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6LwbLdUGrzO2BLjJu4nz7v</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5zhsPGBmNDFQtjhsziS0t1</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3r5fGWOFozVnOPW4FSdjzP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5UE2ij3ca8bF3iWP5Kdt6q</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/7l6HLS77xO676yIOveWq9a</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/2plWOd8BgfD86Dx3o7Cwc9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0KD1RhPkWYCjjz9EGYJ0lC</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3inCj3ZQ7RRqtvH0vG5wbz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3oWHkOKSrzVNNBMGjkOQnX</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/60JbCdnGtjktguVEToZW6N</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/23ESifJg3CWLdYrCAL13C3</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3okMhvztfxK8m0RJ67n2yt</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1zH4ohNBrmrIHxDiEio1n9</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/4zg38Wr08ig2EEkNC7Mm29</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0ns1T6tt2DuQi5bCWfajBP</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5RuFeFXb4fmGiNyxedd34J</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0LeRnJGx13yg3jm1h2LObA</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/1Uee0NFQjcpKDHi1BlXHcw</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/5VKLvoBIU8nJJwqWo2mQyG</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6Yb7jQk2hbILD9kHQnpoaH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,13 +548,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1309,33 +582,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1373,7 +648,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1407,6 +682,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1441,9 +717,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1616,14 +893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,467 +966,377 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>228541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>228541</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>37</v>
       </c>
       <c r="I2">
-        <v>0.762</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J2">
-        <v>0.847</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="K2">
         <v>8</v>
       </c>
       <c r="L2">
-        <v>-3.542</v>
+        <v>-3.5419999999999998</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.09959999999999999</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="O2">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="P2">
-        <v>0.000102</v>
+        <v>1.02E-4</v>
       </c>
       <c r="Q2">
-        <v>0.213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="R2">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="S2">
-        <v>155.984</v>
-      </c>
-      <c r="T2" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" t="s">
-        <v>175</v>
-      </c>
-      <c r="V2" t="s">
-        <v>234</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y2">
+        <v>155.98400000000001</v>
+      </c>
+      <c r="T2">
         <v>167019</v>
       </c>
-      <c r="Z2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="U2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>228541</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>39</v>
       </c>
       <c r="I3">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="J3">
-        <v>0.6820000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>-7.732</v>
+        <v>-7.7320000000000002</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="O3">
         <v>0.186</v>
       </c>
       <c r="P3">
-        <v>1.83E-05</v>
+        <v>1.8300000000000001E-5</v>
       </c>
       <c r="Q3">
-        <v>0.0795</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="R3">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="S3">
         <v>117.056</v>
       </c>
-      <c r="T3" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" t="s">
-        <v>176</v>
-      </c>
-      <c r="V3" t="s">
-        <v>235</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y3">
+      <c r="T3">
         <v>137331</v>
       </c>
-      <c r="Z3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>228541</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H4">
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.763</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="J4">
-        <v>0.766</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4">
-        <v>-6.301</v>
+        <v>-6.3010000000000002</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O4">
         <v>0.123</v>
       </c>
       <c r="P4">
-        <v>0.00329</v>
+        <v>3.29E-3</v>
       </c>
       <c r="Q4">
-        <v>0.09669999999999999</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="R4">
-        <v>0.828</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="S4">
         <v>158.042</v>
       </c>
-      <c r="T4" t="s">
-        <v>174</v>
-      </c>
-      <c r="U4" t="s">
-        <v>177</v>
-      </c>
-      <c r="V4" t="s">
-        <v>236</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y4">
+      <c r="T4">
         <v>197468</v>
       </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>228541</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5">
-        <v>228541</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5">
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H5">
         <v>37</v>
       </c>
       <c r="I5">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="J5">
-        <v>0.9330000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="L5">
-        <v>-4.888</v>
+        <v>-4.8879999999999999</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0.0549</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="O5">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="R5">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="S5">
         <v>116.051</v>
       </c>
-      <c r="T5" t="s">
-        <v>174</v>
-      </c>
-      <c r="U5" t="s">
-        <v>178</v>
-      </c>
-      <c r="V5" t="s">
-        <v>237</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y5">
+      <c r="T5">
         <v>201595</v>
       </c>
-      <c r="Z5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>228541</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
       <c r="E6">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H6">
         <v>34</v>
       </c>
       <c r="I6">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="J6">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>-5.523</v>
+        <v>-5.5229999999999997</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0.0569</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="O6">
-        <v>0.00328</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="P6">
-        <v>7.28E-06</v>
+        <v>7.2799999999999998E-6</v>
       </c>
       <c r="Q6">
-        <v>0.0618</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="R6">
-        <v>0.838</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="S6">
-        <v>131.063</v>
-      </c>
-      <c r="T6" t="s">
-        <v>174</v>
-      </c>
-      <c r="U6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" t="s">
-        <v>238</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y6">
+        <v>131.06299999999999</v>
+      </c>
+      <c r="T6">
         <v>220809</v>
       </c>
-      <c r="Z6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>228541</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H7">
         <v>37</v>
       </c>
       <c r="I7">
-        <v>0.845</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="J7">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>-4.411</v>
+        <v>-4.4109999999999996</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0464</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="O7">
-        <v>0.0673</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2159,60 +1348,45 @@
         <v>0.46</v>
       </c>
       <c r="S7">
-        <v>108.052</v>
-      </c>
-      <c r="T7" t="s">
-        <v>174</v>
-      </c>
-      <c r="U7" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" t="s">
-        <v>239</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y7">
+        <v>108.05200000000001</v>
+      </c>
+      <c r="T7">
         <v>214700</v>
       </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>228541</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <v>47</v>
       </c>
       <c r="I8">
-        <v>0.668</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="J8">
-        <v>0.9379999999999999</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -2227,78 +1401,63 @@
         <v>0.158</v>
       </c>
       <c r="O8">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0978</v>
+        <v>9.7799999999999998E-2</v>
       </c>
       <c r="R8">
-        <v>0.657</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="S8">
         <v>150.029</v>
       </c>
-      <c r="T8" t="s">
-        <v>174</v>
-      </c>
-      <c r="U8" t="s">
-        <v>181</v>
-      </c>
-      <c r="V8" t="s">
-        <v>240</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y8">
+      <c r="T8">
         <v>238400</v>
       </c>
-      <c r="Z8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="U8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>228541</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H9">
         <v>24</v>
       </c>
       <c r="I9">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="J9">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
-        <v>-4.254</v>
+        <v>-4.2539999999999996</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2307,63 +1466,48 @@
         <v>0.13</v>
       </c>
       <c r="O9">
-        <v>0.07770000000000001</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="P9">
-        <v>5.02E-06</v>
+        <v>5.0200000000000002E-6</v>
       </c>
       <c r="Q9">
-        <v>0.0469</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="R9">
-        <v>0.532</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="S9">
-        <v>153.955</v>
-      </c>
-      <c r="T9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U9" t="s">
-        <v>182</v>
-      </c>
-      <c r="V9" t="s">
-        <v>241</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y9">
+        <v>153.95500000000001</v>
+      </c>
+      <c r="T9">
         <v>177720</v>
       </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="U9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>228541</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H10">
         <v>23</v>
@@ -2372,25 +1516,25 @@
         <v>0.874</v>
       </c>
       <c r="J10">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="K10">
         <v>7</v>
       </c>
       <c r="L10">
-        <v>-6.975</v>
+        <v>-6.9749999999999996</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.0535</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="O10">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="P10">
-        <v>0.0117</v>
+        <v>1.17E-2</v>
       </c>
       <c r="Q10">
         <v>0.114</v>
@@ -2401,79 +1545,64 @@
       <c r="S10">
         <v>124.994</v>
       </c>
-      <c r="T10" t="s">
-        <v>174</v>
-      </c>
-      <c r="U10" t="s">
-        <v>183</v>
-      </c>
-      <c r="V10" t="s">
-        <v>242</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y10">
+      <c r="T10">
         <v>197760</v>
       </c>
-      <c r="Z10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="U10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>228541</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J11">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>-5.467</v>
+        <v>-5.4669999999999996</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.0852</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="O11">
-        <v>0.00749</v>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="P11">
-        <v>1.18E-06</v>
+        <v>1.1799999999999999E-6</v>
       </c>
       <c r="Q11">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="R11">
         <v>0.877</v>
@@ -2481,49 +1610,34 @@
       <c r="S11">
         <v>124.139</v>
       </c>
-      <c r="T11" t="s">
-        <v>174</v>
-      </c>
-      <c r="U11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V11" t="s">
-        <v>243</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y11">
+      <c r="T11">
         <v>263693</v>
       </c>
-      <c r="Z11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="U11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>228541</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>54</v>
@@ -2547,143 +1661,113 @@
         <v>0.16</v>
       </c>
       <c r="O12">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P12">
-        <v>6.76E-05</v>
+        <v>6.7600000000000003E-5</v>
       </c>
       <c r="Q12">
-        <v>0.06560000000000001</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="R12">
         <v>0.313</v>
       </c>
       <c r="S12">
-        <v>120.007</v>
-      </c>
-      <c r="T12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U12" t="s">
-        <v>185</v>
-      </c>
-      <c r="V12" t="s">
-        <v>244</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y12">
+        <v>120.00700000000001</v>
+      </c>
+      <c r="T12">
         <v>209960</v>
       </c>
-      <c r="Z12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="U12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>228541</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H13">
         <v>31</v>
       </c>
       <c r="I13">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J13">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="K13">
         <v>11</v>
       </c>
       <c r="L13">
-        <v>-5.916</v>
+        <v>-5.9160000000000004</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.0599</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>0.0197</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="P13">
-        <v>0.00484</v>
+        <v>4.8399999999999997E-3</v>
       </c>
       <c r="Q13">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="R13">
         <v>0.434</v>
       </c>
       <c r="S13">
-        <v>130.003</v>
-      </c>
-      <c r="T13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U13" t="s">
-        <v>186</v>
-      </c>
-      <c r="V13" t="s">
-        <v>245</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y13">
+        <v>130.00299999999999</v>
+      </c>
+      <c r="T13">
         <v>217913</v>
       </c>
-      <c r="Z13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="U13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>228541</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -2692,102 +1776,87 @@
         <v>0.88</v>
       </c>
       <c r="J14">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-3.322</v>
+        <v>-3.3220000000000001</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.0615</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="O14">
-        <v>0.0601</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="P14">
-        <v>1.21E-06</v>
+        <v>1.2100000000000001E-6</v>
       </c>
       <c r="Q14">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R14">
-        <v>0.834</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="S14">
-        <v>130.02</v>
-      </c>
-      <c r="T14" t="s">
-        <v>174</v>
-      </c>
-      <c r="U14" t="s">
-        <v>187</v>
-      </c>
-      <c r="V14" t="s">
-        <v>246</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y14">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="T14">
         <v>159013</v>
       </c>
-      <c r="Z14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="U14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>228541</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H15">
         <v>43</v>
       </c>
       <c r="I15">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J15">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>-7.229</v>
+        <v>-7.2290000000000001</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="O15">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2796,158 +1865,128 @@
         <v>0.111</v>
       </c>
       <c r="R15">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="S15">
         <v>160.023</v>
       </c>
-      <c r="T15" t="s">
-        <v>174</v>
-      </c>
-      <c r="U15" t="s">
-        <v>188</v>
-      </c>
-      <c r="V15" t="s">
-        <v>247</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y15">
+      <c r="T15">
         <v>258864</v>
       </c>
-      <c r="Z15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="U15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>228541</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H16">
         <v>32</v>
       </c>
       <c r="I16">
-        <v>0.6830000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="J16">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
       <c r="L16">
-        <v>-5.267</v>
+        <v>-5.2670000000000003</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0.207</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="O16">
-        <v>0.0165</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="P16">
-        <v>0.00536</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="Q16">
-        <v>0.0544</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="R16">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S16">
         <v>155.029</v>
       </c>
-      <c r="T16" t="s">
-        <v>174</v>
-      </c>
-      <c r="U16" t="s">
-        <v>189</v>
-      </c>
-      <c r="V16" t="s">
-        <v>248</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y16">
+      <c r="T16">
         <v>250200</v>
       </c>
-      <c r="Z16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="U16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>228541</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H17">
         <v>34</v>
       </c>
       <c r="I17">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="J17">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17">
-        <v>-6.362</v>
+        <v>-6.3620000000000001</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.0548</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="O17">
-        <v>0.00322</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2956,54 +1995,39 @@
         <v>0.215</v>
       </c>
       <c r="R17">
-        <v>0.5610000000000001</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="S17">
-        <v>127.778</v>
-      </c>
-      <c r="T17" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" t="s">
-        <v>190</v>
-      </c>
-      <c r="V17" t="s">
-        <v>249</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y17">
+        <v>127.77800000000001</v>
+      </c>
+      <c r="T17">
         <v>198194</v>
       </c>
-      <c r="Z17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="U17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>228541</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>54</v>
@@ -3012,93 +2036,78 @@
         <v>0.8</v>
       </c>
       <c r="J18">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-3.555</v>
+        <v>-3.5550000000000002</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0.0331</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="O18">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.0516</v>
+        <v>5.16E-2</v>
       </c>
       <c r="R18">
         <v>0.629</v>
       </c>
       <c r="S18">
-        <v>128.067</v>
-      </c>
-      <c r="T18" t="s">
-        <v>174</v>
-      </c>
-      <c r="U18" t="s">
-        <v>191</v>
-      </c>
-      <c r="V18" t="s">
-        <v>250</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y18">
+        <v>128.06700000000001</v>
+      </c>
+      <c r="T18">
         <v>199149</v>
       </c>
-      <c r="Z18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>228541</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>54</v>
       </c>
       <c r="I19">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="J19">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K19">
         <v>7</v>
       </c>
       <c r="L19">
-        <v>-2.789</v>
+        <v>-2.7890000000000001</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -3107,63 +2116,48 @@
         <v>0.151</v>
       </c>
       <c r="O19">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P19">
-        <v>4.84E-06</v>
+        <v>4.8400000000000002E-6</v>
       </c>
       <c r="Q19">
-        <v>0.07190000000000001</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="R19">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="S19">
         <v>160.072</v>
       </c>
-      <c r="T19" t="s">
-        <v>174</v>
-      </c>
-      <c r="U19" t="s">
-        <v>192</v>
-      </c>
-      <c r="V19" t="s">
-        <v>251</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y19">
+      <c r="T19">
         <v>227642</v>
       </c>
-      <c r="Z19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="U19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>228541</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H20">
         <v>43</v>
@@ -3172,22 +2166,22 @@
         <v>0.65</v>
       </c>
       <c r="J20">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>-3.642</v>
+        <v>-3.6419999999999999</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0.08989999999999999</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="O20">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3196,60 +2190,45 @@
         <v>0.313</v>
       </c>
       <c r="R20">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="S20">
         <v>127.947</v>
       </c>
-      <c r="T20" t="s">
-        <v>174</v>
-      </c>
-      <c r="U20" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" t="s">
-        <v>252</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y20">
+      <c r="T20">
         <v>244578</v>
       </c>
-      <c r="Z20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="U20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>228541</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H21">
         <v>43</v>
       </c>
       <c r="I21">
-        <v>0.8159999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J21">
         <v>0.93</v>
@@ -3267,87 +2246,72 @@
         <v>0.23</v>
       </c>
       <c r="O21">
-        <v>0.0924</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.07489999999999999</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="R21">
-        <v>0.819</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="S21">
         <v>126.175</v>
       </c>
-      <c r="T21" t="s">
-        <v>174</v>
-      </c>
-      <c r="U21" t="s">
-        <v>194</v>
-      </c>
-      <c r="V21" t="s">
-        <v>253</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y21">
+      <c r="T21">
         <v>218213</v>
       </c>
-      <c r="Z21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="U21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>228541</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H22">
         <v>47</v>
       </c>
       <c r="I22">
-        <v>0.662</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="J22">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>-3.175</v>
+        <v>-3.1749999999999998</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="O22">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3356,69 +2320,54 @@
         <v>0.24</v>
       </c>
       <c r="R22">
-        <v>0.866</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="S22">
-        <v>157.927</v>
-      </c>
-      <c r="T22" t="s">
-        <v>174</v>
-      </c>
-      <c r="U22" t="s">
-        <v>195</v>
-      </c>
-      <c r="V22" t="s">
-        <v>254</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y22">
+        <v>157.92699999999999</v>
+      </c>
+      <c r="T22">
         <v>176207</v>
       </c>
-      <c r="Z22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="U22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>228541</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H23">
         <v>43</v>
       </c>
       <c r="I23">
-        <v>0.6820000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="J23">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>-3.957</v>
+        <v>-3.9569999999999999</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3427,63 +2376,48 @@
         <v>0.191</v>
       </c>
       <c r="O23">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="R23">
-        <v>0.821</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="S23">
-        <v>130.207</v>
-      </c>
-      <c r="T23" t="s">
-        <v>174</v>
-      </c>
-      <c r="U23" t="s">
-        <v>196</v>
-      </c>
-      <c r="V23" t="s">
-        <v>255</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y23">
+        <v>130.20699999999999</v>
+      </c>
+      <c r="T23">
         <v>225252</v>
       </c>
-      <c r="Z23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>228541</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H24">
         <v>39</v>
@@ -3492,28 +2426,28 @@
         <v>0.77</v>
       </c>
       <c r="J24">
-        <v>0.835</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="K24">
         <v>11</v>
       </c>
       <c r="L24">
-        <v>-4.998</v>
+        <v>-4.9980000000000002</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="O24">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="R24">
         <v>0.83</v>
@@ -3521,49 +2455,34 @@
       <c r="S24">
         <v>130.006</v>
       </c>
-      <c r="T24" t="s">
-        <v>174</v>
-      </c>
-      <c r="U24" t="s">
-        <v>197</v>
-      </c>
-      <c r="V24" t="s">
-        <v>256</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y24">
+      <c r="T24">
         <v>217846</v>
       </c>
-      <c r="Z24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="U24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>228541</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H25">
         <v>74</v>
@@ -3572,13 +2491,13 @@
         <v>0.67</v>
       </c>
       <c r="J25">
-        <v>0.9320000000000001</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="K25">
         <v>7</v>
       </c>
       <c r="L25">
-        <v>-2.886</v>
+        <v>-2.8860000000000001</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -3587,158 +2506,128 @@
         <v>0.112</v>
       </c>
       <c r="O25">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="R25">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="S25">
         <v>100.074</v>
       </c>
-      <c r="T25" t="s">
-        <v>174</v>
-      </c>
-      <c r="U25" t="s">
-        <v>198</v>
-      </c>
-      <c r="V25" t="s">
-        <v>257</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y25">
+      <c r="T25">
         <v>217009</v>
       </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="U25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>228541</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H26">
         <v>49</v>
       </c>
       <c r="I26">
-        <v>0.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="J26">
-        <v>0.8139999999999999</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="K26">
         <v>5</v>
       </c>
       <c r="L26">
-        <v>-4.488</v>
+        <v>-4.4880000000000004</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.07779999999999999</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="O26">
-        <v>0.00919</v>
+        <v>9.1900000000000003E-3</v>
       </c>
       <c r="P26">
-        <v>1.34E-05</v>
+        <v>1.34E-5</v>
       </c>
       <c r="Q26">
-        <v>0.0728</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="R26">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="S26">
-        <v>102.993</v>
-      </c>
-      <c r="T26" t="s">
-        <v>174</v>
-      </c>
-      <c r="U26" t="s">
-        <v>199</v>
-      </c>
-      <c r="V26" t="s">
-        <v>258</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y26">
+        <v>102.99299999999999</v>
+      </c>
+      <c r="T26">
         <v>179651</v>
       </c>
-      <c r="Z26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="U26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>228541</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H27">
         <v>38</v>
       </c>
       <c r="I27">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="J27">
-        <v>0.737</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>-6.087</v>
+        <v>-6.0869999999999997</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3747,7 +2636,7 @@
         <v>0.34</v>
       </c>
       <c r="O27">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3756,63 +2645,48 @@
         <v>0.155</v>
       </c>
       <c r="R27">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="S27">
         <v>107.995</v>
       </c>
-      <c r="T27" t="s">
-        <v>174</v>
-      </c>
-      <c r="U27" t="s">
-        <v>200</v>
-      </c>
-      <c r="V27" t="s">
-        <v>259</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y27">
+      <c r="T27">
         <v>170375</v>
       </c>
-      <c r="Z27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>228541</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="J28">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3824,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O28">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R28">
         <v>0.751</v>
@@ -3841,55 +2715,40 @@
       <c r="S28">
         <v>109.99</v>
       </c>
-      <c r="T28" t="s">
-        <v>174</v>
-      </c>
-      <c r="U28" t="s">
-        <v>201</v>
-      </c>
-      <c r="V28" t="s">
-        <v>260</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y28">
+      <c r="T28">
         <v>208903</v>
       </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="U28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>228541</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H29">
         <v>33</v>
       </c>
       <c r="I29">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="J29">
         <v>0.755</v>
@@ -3898,78 +2757,63 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>-5.121</v>
+        <v>-5.1210000000000004</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.0536</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="O29">
-        <v>0.00181</v>
+        <v>1.81E-3</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="R29">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="S29">
         <v>104.01</v>
       </c>
-      <c r="T29" t="s">
-        <v>174</v>
-      </c>
-      <c r="U29" t="s">
-        <v>202</v>
-      </c>
-      <c r="V29" t="s">
-        <v>261</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y29">
+      <c r="T29">
         <v>196558</v>
       </c>
-      <c r="Z29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>228541</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H30">
         <v>54</v>
       </c>
       <c r="I30">
-        <v>0.803</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="J30">
         <v>0.877</v>
@@ -3978,158 +2822,128 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-4.408</v>
+        <v>-4.4080000000000004</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="O30">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="P30">
-        <v>5.12E-06</v>
+        <v>5.1200000000000001E-6</v>
       </c>
       <c r="Q30">
         <v>0.371</v>
       </c>
       <c r="R30">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="S30">
         <v>105.974</v>
       </c>
-      <c r="T30" t="s">
-        <v>174</v>
-      </c>
-      <c r="U30" t="s">
-        <v>203</v>
-      </c>
-      <c r="V30" t="s">
-        <v>262</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y30">
+      <c r="T30">
         <v>191310</v>
       </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="U30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>228541</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H31">
         <v>47</v>
       </c>
       <c r="I31">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="J31">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-4.459</v>
+        <v>-4.4589999999999996</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="O31">
-        <v>0.0514</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="R31">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="S31">
         <v>106.05</v>
       </c>
-      <c r="T31" t="s">
-        <v>174</v>
-      </c>
-      <c r="U31" t="s">
-        <v>204</v>
-      </c>
-      <c r="V31" t="s">
-        <v>263</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y31">
+      <c r="T31">
         <v>193531</v>
       </c>
-      <c r="Z31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="U31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>228541</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H32">
         <v>39</v>
       </c>
       <c r="I32">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="J32">
         <v>0.874</v>
@@ -4138,81 +2952,66 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>-4.271</v>
+        <v>-4.2709999999999999</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0.0711</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="O32">
-        <v>0.0514</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="P32">
-        <v>6.82E-06</v>
+        <v>6.8199999999999999E-6</v>
       </c>
       <c r="Q32">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="R32">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="S32">
         <v>106.042</v>
       </c>
-      <c r="T32" t="s">
-        <v>174</v>
-      </c>
-      <c r="U32" t="s">
-        <v>205</v>
-      </c>
-      <c r="V32" t="s">
-        <v>264</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y32">
+      <c r="T32">
         <v>193142</v>
       </c>
-      <c r="Z32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="U32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>228541</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H33">
         <v>39</v>
       </c>
       <c r="I33">
-        <v>0.787</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="J33">
-        <v>0.773</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4224,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="O33">
         <v>0.19</v>
@@ -4233,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="R33">
         <v>0.373</v>
@@ -4241,224 +3040,179 @@
       <c r="S33">
         <v>110.148</v>
       </c>
-      <c r="T33" t="s">
-        <v>174</v>
-      </c>
-      <c r="U33" t="s">
-        <v>206</v>
-      </c>
-      <c r="V33" t="s">
-        <v>265</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y33">
+      <c r="T33">
         <v>210238</v>
       </c>
-      <c r="Z33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>228541</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H34">
         <v>37</v>
       </c>
       <c r="I34">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="J34">
-        <v>0.793</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>-5.166</v>
+        <v>-5.1660000000000004</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.0631</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="O34">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0.0433</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="R34">
         <v>0.624</v>
       </c>
       <c r="S34">
-        <v>107.972</v>
-      </c>
-      <c r="T34" t="s">
-        <v>174</v>
-      </c>
-      <c r="U34" t="s">
-        <v>207</v>
-      </c>
-      <c r="V34" t="s">
-        <v>266</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y34">
+        <v>107.97199999999999</v>
+      </c>
+      <c r="T34">
         <v>194687</v>
       </c>
-      <c r="Z34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>228541</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H35">
         <v>20</v>
       </c>
       <c r="I35">
-        <v>0.713</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="J35">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>-5.562</v>
+        <v>-5.5620000000000003</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="O35">
         <v>0.376</v>
       </c>
       <c r="P35">
-        <v>7.42E-05</v>
+        <v>7.4200000000000001E-5</v>
       </c>
       <c r="Q35">
-        <v>0.0994</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="R35">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="S35">
-        <v>156.027</v>
-      </c>
-      <c r="T35" t="s">
-        <v>174</v>
-      </c>
-      <c r="U35" t="s">
-        <v>208</v>
-      </c>
-      <c r="V35" t="s">
-        <v>267</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y35">
+        <v>156.02699999999999</v>
+      </c>
+      <c r="T35">
         <v>199675</v>
       </c>
-      <c r="Z35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="U35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>228541</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H36">
         <v>27</v>
       </c>
       <c r="I36">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="J36">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="K36">
         <v>8</v>
       </c>
       <c r="L36">
-        <v>-5.612</v>
+        <v>-5.6120000000000001</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4476,149 +3230,119 @@
         <v>0.11</v>
       </c>
       <c r="R36">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="S36">
-        <v>75.33499999999999</v>
-      </c>
-      <c r="T36" t="s">
-        <v>174</v>
-      </c>
-      <c r="U36" t="s">
-        <v>209</v>
-      </c>
-      <c r="V36" t="s">
-        <v>268</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y36">
+        <v>75.334999999999994</v>
+      </c>
+      <c r="T36">
         <v>159212</v>
       </c>
-      <c r="Z36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="U36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>228541</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H37">
         <v>47</v>
       </c>
       <c r="I37">
-        <v>0.642</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="J37">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="K37">
         <v>8</v>
       </c>
       <c r="L37">
-        <v>-5.482</v>
+        <v>-5.4820000000000002</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="O37">
-        <v>0.0469</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.0791</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="R37">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="S37">
-        <v>160.022</v>
-      </c>
-      <c r="T37" t="s">
-        <v>174</v>
-      </c>
-      <c r="U37" t="s">
-        <v>210</v>
-      </c>
-      <c r="V37" t="s">
-        <v>269</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y37">
+        <v>160.02199999999999</v>
+      </c>
+      <c r="T37">
         <v>159698</v>
       </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="U37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>228541</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H38">
         <v>25</v>
       </c>
       <c r="I38">
-        <v>0.636</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="J38">
-        <v>0.921</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="K38">
         <v>8</v>
       </c>
       <c r="L38">
-        <v>-5.807</v>
+        <v>-5.8070000000000004</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4627,69 +3351,54 @@
         <v>0.154</v>
       </c>
       <c r="O38">
-        <v>0.0372</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="R38">
-        <v>0.9330000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="S38">
         <v>159.983</v>
       </c>
-      <c r="T38" t="s">
-        <v>174</v>
-      </c>
-      <c r="U38" t="s">
-        <v>211</v>
-      </c>
-      <c r="V38" t="s">
-        <v>270</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y38">
+      <c r="T38">
         <v>159000</v>
       </c>
-      <c r="Z38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="U38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>228541</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H39">
         <v>30</v>
       </c>
       <c r="I39">
-        <v>0.666</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="J39">
         <v>0.876</v>
@@ -4707,69 +3416,54 @@
         <v>0.11</v>
       </c>
       <c r="O39">
-        <v>0.08160000000000001</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="R39">
-        <v>0.9350000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="S39">
         <v>159.99</v>
       </c>
-      <c r="T39" t="s">
-        <v>174</v>
-      </c>
-      <c r="U39" t="s">
-        <v>212</v>
-      </c>
-      <c r="V39" t="s">
-        <v>271</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y39">
+      <c r="T39">
         <v>159000</v>
       </c>
-      <c r="Z39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="U39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>228541</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H40">
         <v>22</v>
       </c>
       <c r="I40">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="J40">
         <v>0.93</v>
@@ -4778,78 +3472,63 @@
         <v>8</v>
       </c>
       <c r="L40">
-        <v>-5.074</v>
+        <v>-5.0739999999999998</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.0481</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>0.0162</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="P40">
-        <v>0.00199</v>
+        <v>1.99E-3</v>
       </c>
       <c r="Q40">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="R40">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="S40">
-        <v>160.019</v>
-      </c>
-      <c r="T40" t="s">
-        <v>174</v>
-      </c>
-      <c r="U40" t="s">
-        <v>213</v>
-      </c>
-      <c r="V40" t="s">
-        <v>272</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y40">
+        <v>160.01900000000001</v>
+      </c>
+      <c r="T40">
         <v>158903</v>
       </c>
-      <c r="Z40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="U40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>228541</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H41">
         <v>54</v>
       </c>
       <c r="I41">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J41">
         <v>0.95</v>
@@ -4864,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0.0453</v>
+        <v>4.53E-2</v>
       </c>
       <c r="O41">
-        <v>0.0134</v>
+        <v>1.34E-2</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4876,54 +3555,39 @@
         <v>0.107</v>
       </c>
       <c r="R41">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="S41">
-        <v>131.986</v>
-      </c>
-      <c r="T41" t="s">
-        <v>174</v>
-      </c>
-      <c r="U41" t="s">
-        <v>214</v>
-      </c>
-      <c r="V41" t="s">
-        <v>273</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y41">
+        <v>131.98599999999999</v>
+      </c>
+      <c r="T41">
         <v>257273</v>
       </c>
-      <c r="Z41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="U41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>228541</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H42">
         <v>43</v>
@@ -4932,78 +3596,63 @@
         <v>0.78</v>
       </c>
       <c r="J42">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>-5.341</v>
+        <v>-5.3410000000000002</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0.0868</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="O42">
-        <v>0.0543</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="R42">
         <v>0.749</v>
       </c>
       <c r="S42">
-        <v>160.008</v>
-      </c>
-      <c r="T42" t="s">
-        <v>174</v>
-      </c>
-      <c r="U42" t="s">
-        <v>215</v>
-      </c>
-      <c r="V42" t="s">
-        <v>274</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y42">
+        <v>160.00800000000001</v>
+      </c>
+      <c r="T42">
         <v>154500</v>
       </c>
-      <c r="Z42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="U42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>228541</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H43">
         <v>54</v>
@@ -5012,13 +3661,13 @@
         <v>0.83</v>
       </c>
       <c r="J43">
-        <v>0.805</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="K43">
         <v>7</v>
       </c>
       <c r="L43">
-        <v>-3.034</v>
+        <v>-3.0339999999999998</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -5027,72 +3676,57 @@
         <v>0.222</v>
       </c>
       <c r="O43">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="P43">
-        <v>0.0394</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="Q43">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R43">
         <v>0.62</v>
       </c>
       <c r="S43">
-        <v>104.025</v>
-      </c>
-      <c r="T43" t="s">
-        <v>174</v>
-      </c>
-      <c r="U43" t="s">
-        <v>216</v>
-      </c>
-      <c r="V43" t="s">
-        <v>275</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y43">
+        <v>104.02500000000001</v>
+      </c>
+      <c r="T43">
         <v>177692</v>
       </c>
-      <c r="Z43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="U43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>228541</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H44">
         <v>47</v>
       </c>
       <c r="I44">
-        <v>0.769</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="J44">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -5107,63 +3741,48 @@
         <v>0.113</v>
       </c>
       <c r="O44">
-        <v>0.0352</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0.0728</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="R44">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="S44">
         <v>105.899</v>
       </c>
-      <c r="T44" t="s">
-        <v>174</v>
-      </c>
-      <c r="U44" t="s">
-        <v>217</v>
-      </c>
-      <c r="V44" t="s">
-        <v>276</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y44">
+      <c r="T44">
         <v>165878</v>
       </c>
-      <c r="Z44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="U44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>228541</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H45">
         <v>13</v>
@@ -5172,7 +3791,7 @@
         <v>0.66</v>
       </c>
       <c r="J45">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -5184,75 +3803,60 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>0.0379</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="O45">
-        <v>0.0238</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="P45">
-        <v>5.53E-06</v>
+        <v>5.5300000000000004E-6</v>
       </c>
       <c r="Q45">
         <v>0.247</v>
       </c>
       <c r="R45">
-        <v>0.767</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="S45">
         <v>127.783</v>
       </c>
-      <c r="T45" t="s">
-        <v>174</v>
-      </c>
-      <c r="U45" t="s">
-        <v>218</v>
-      </c>
-      <c r="V45" t="s">
-        <v>277</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y45">
+      <c r="T45">
         <v>199435</v>
       </c>
-      <c r="Z45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="U45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>228541</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H46">
         <v>11</v>
       </c>
       <c r="I46">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="J46">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -5264,81 +3868,66 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>0.0771</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="O46">
-        <v>0.0511</v>
+        <v>5.11E-2</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0.0552</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="R46">
-        <v>0.592</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="S46">
         <v>130.059</v>
       </c>
-      <c r="T46" t="s">
-        <v>174</v>
-      </c>
-      <c r="U46" t="s">
-        <v>219</v>
-      </c>
-      <c r="V46" t="s">
-        <v>278</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y46">
+      <c r="T46">
         <v>269584</v>
       </c>
-      <c r="Z46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="U46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>228541</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H47">
         <v>30</v>
       </c>
       <c r="I47">
-        <v>0.794</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="J47">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="K47">
         <v>10</v>
       </c>
       <c r="L47">
-        <v>-4.433</v>
+        <v>-4.4329999999999998</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5347,7 +3936,7 @@
         <v>0.222</v>
       </c>
       <c r="O47">
-        <v>0.0848</v>
+        <v>8.48E-2</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -5359,60 +3948,45 @@
         <v>0.41</v>
       </c>
       <c r="S47">
-        <v>159.956</v>
-      </c>
-      <c r="T47" t="s">
-        <v>174</v>
-      </c>
-      <c r="U47" t="s">
-        <v>220</v>
-      </c>
-      <c r="V47" t="s">
-        <v>279</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y47">
+        <v>159.95599999999999</v>
+      </c>
+      <c r="T47">
         <v>216000</v>
       </c>
-      <c r="Z47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="U47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>228541</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H48">
         <v>14</v>
       </c>
       <c r="I48">
-        <v>0.797</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="J48">
-        <v>0.758</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5427,13 +4001,13 @@
         <v>0.187</v>
       </c>
       <c r="O48">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="P48">
-        <v>0.009220000000000001</v>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="Q48">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="R48">
         <v>0.254</v>
@@ -5441,129 +4015,99 @@
       <c r="S48">
         <v>99.988</v>
       </c>
-      <c r="T48" t="s">
-        <v>174</v>
-      </c>
-      <c r="U48" t="s">
-        <v>221</v>
-      </c>
-      <c r="V48" t="s">
-        <v>280</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y48">
+      <c r="T48">
         <v>204048</v>
       </c>
-      <c r="Z48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="U48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>228541</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H49">
         <v>15</v>
       </c>
       <c r="I49">
-        <v>0.661</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="J49">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="K49">
         <v>7</v>
       </c>
       <c r="L49">
-        <v>-7.134</v>
+        <v>-7.1340000000000003</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <v>0.0941</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="O49">
-        <v>0.00636</v>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="P49">
-        <v>2.38E-06</v>
+        <v>2.3800000000000001E-6</v>
       </c>
       <c r="Q49">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="R49">
-        <v>0.327</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="S49">
-        <v>160.075</v>
-      </c>
-      <c r="T49" t="s">
-        <v>174</v>
-      </c>
-      <c r="U49" t="s">
-        <v>222</v>
-      </c>
-      <c r="V49" t="s">
-        <v>281</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y49">
+        <v>160.07499999999999</v>
+      </c>
+      <c r="T49">
         <v>183097</v>
       </c>
-      <c r="Z49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="U49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>228541</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E50">
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H50">
         <v>25</v>
@@ -5572,7 +4116,7 @@
         <v>0.71</v>
       </c>
       <c r="J50">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5587,72 +4131,57 @@
         <v>0.13</v>
       </c>
       <c r="O50">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="P50">
-        <v>2.89E-06</v>
+        <v>2.8899999999999999E-6</v>
       </c>
       <c r="Q50">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="R50">
-        <v>0.582</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="S50">
-        <v>160.156</v>
-      </c>
-      <c r="T50" t="s">
-        <v>174</v>
-      </c>
-      <c r="U50" t="s">
-        <v>223</v>
-      </c>
-      <c r="V50" t="s">
-        <v>282</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y50">
+        <v>160.15600000000001</v>
+      </c>
+      <c r="T50">
         <v>230802</v>
       </c>
-      <c r="Z50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="U50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>228541</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E51">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H51">
         <v>9</v>
       </c>
       <c r="I51">
-        <v>0.802</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="J51">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5664,96 +4193,81 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>0.0698</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="O51">
-        <v>0.0112</v>
+        <v>1.12E-2</v>
       </c>
       <c r="P51">
-        <v>6.14E-05</v>
+        <v>6.1400000000000002E-5</v>
       </c>
       <c r="Q51">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="R51">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="S51">
         <v>139.989</v>
       </c>
-      <c r="T51" t="s">
-        <v>174</v>
-      </c>
-      <c r="U51" t="s">
-        <v>224</v>
-      </c>
-      <c r="V51" t="s">
-        <v>283</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y51">
+      <c r="T51">
         <v>169134</v>
       </c>
-      <c r="Z51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="U51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>228541</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E52">
         <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H52">
         <v>27</v>
       </c>
       <c r="I52">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J52">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="K52">
         <v>5</v>
       </c>
       <c r="L52">
-        <v>-4.558</v>
+        <v>-4.5579999999999998</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="O52">
-        <v>0.0757</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="R52">
         <v>0.871</v>
@@ -5761,58 +4275,43 @@
       <c r="S52">
         <v>105.024</v>
       </c>
-      <c r="T52" t="s">
-        <v>174</v>
-      </c>
-      <c r="U52" t="s">
-        <v>225</v>
-      </c>
-      <c r="V52" t="s">
-        <v>284</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y52">
+      <c r="T52">
         <v>169143</v>
       </c>
-      <c r="Z52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="U52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B53">
         <v>228541</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H53">
         <v>37</v>
       </c>
       <c r="I53">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J53">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5824,66 +4323,51 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O53">
-        <v>0.00779</v>
+        <v>7.79E-3</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0.0614</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="R53">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="S53">
         <v>124.98</v>
       </c>
-      <c r="T53" t="s">
-        <v>174</v>
-      </c>
-      <c r="U53" t="s">
-        <v>226</v>
-      </c>
-      <c r="V53" t="s">
-        <v>285</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y53">
+      <c r="T53">
         <v>190145</v>
       </c>
-      <c r="Z53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="U53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>228541</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H54">
         <v>20</v>
@@ -5892,164 +4376,134 @@
         <v>0.83</v>
       </c>
       <c r="J54">
-        <v>0.761</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="K54">
         <v>4</v>
       </c>
       <c r="L54">
-        <v>-7.981</v>
+        <v>-7.9809999999999999</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="O54">
-        <v>0.0566</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0.0888</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="R54">
-        <v>0.738</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="S54">
-        <v>157.984</v>
-      </c>
-      <c r="T54" t="s">
-        <v>174</v>
-      </c>
-      <c r="U54" t="s">
-        <v>227</v>
-      </c>
-      <c r="V54" t="s">
-        <v>286</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y54">
+        <v>157.98400000000001</v>
+      </c>
+      <c r="T54">
         <v>201235</v>
       </c>
-      <c r="Z54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="U54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>228541</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H55">
         <v>38</v>
       </c>
       <c r="I55">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="J55">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="K55">
         <v>8</v>
       </c>
       <c r="L55">
-        <v>-6.603</v>
+        <v>-6.6029999999999998</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="O55">
-        <v>0.0429</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="R55">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="S55">
         <v>124.996</v>
       </c>
-      <c r="T55" t="s">
-        <v>174</v>
-      </c>
-      <c r="U55" t="s">
-        <v>228</v>
-      </c>
-      <c r="V55" t="s">
-        <v>287</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y55">
+      <c r="T55">
         <v>165120</v>
       </c>
-      <c r="Z55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="U55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B56">
         <v>228541</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E56">
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H56">
         <v>54</v>
       </c>
       <c r="I56">
-        <v>0.5570000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J56">
         <v>0.878</v>
@@ -6067,78 +4521,63 @@
         <v>0.316</v>
       </c>
       <c r="O56">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="R56">
-        <v>0.663</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="S56">
         <v>110.071</v>
       </c>
-      <c r="T56" t="s">
-        <v>174</v>
-      </c>
-      <c r="U56" t="s">
-        <v>229</v>
-      </c>
-      <c r="V56" t="s">
-        <v>288</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y56">
+      <c r="T56">
         <v>231178</v>
       </c>
-      <c r="Z56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="U56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>228541</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H57">
         <v>47</v>
       </c>
       <c r="I57">
-        <v>0.735</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J57">
-        <v>0.852</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K57">
         <v>11</v>
       </c>
       <c r="L57">
-        <v>-4.805</v>
+        <v>-4.8049999999999997</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -6147,13 +4586,13 @@
         <v>0.122</v>
       </c>
       <c r="O57">
-        <v>0.0844</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R57">
         <v>0.68</v>
@@ -6161,58 +4600,43 @@
       <c r="S57">
         <v>109.816</v>
       </c>
-      <c r="T57" t="s">
-        <v>174</v>
-      </c>
-      <c r="U57" t="s">
-        <v>230</v>
-      </c>
-      <c r="V57" t="s">
-        <v>289</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y57">
+      <c r="T57">
         <v>230544</v>
       </c>
-      <c r="Z57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="U57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>228541</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H58">
         <v>37</v>
       </c>
       <c r="I58">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="J58">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="K58">
         <v>10</v>
@@ -6224,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="O58">
         <v>0.159</v>
@@ -6233,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.0579</v>
+        <v>5.79E-2</v>
       </c>
       <c r="R58">
         <v>0.53</v>
@@ -6241,55 +4665,40 @@
       <c r="S58">
         <v>160.071</v>
       </c>
-      <c r="T58" t="s">
-        <v>174</v>
-      </c>
-      <c r="U58" t="s">
-        <v>231</v>
-      </c>
-      <c r="V58" t="s">
-        <v>290</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y58">
+      <c r="T58">
         <v>272590</v>
       </c>
-      <c r="Z58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="U58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>228541</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E59">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H59">
         <v>33</v>
       </c>
       <c r="I59">
-        <v>0.616</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="J59">
         <v>0.9</v>
@@ -6298,72 +4707,57 @@
         <v>5</v>
       </c>
       <c r="L59">
-        <v>-4.273</v>
+        <v>-4.2729999999999997</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>0.0439</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="O59">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="P59">
-        <v>2.6E-06</v>
+        <v>2.6000000000000001E-6</v>
       </c>
       <c r="Q59">
-        <v>0.147</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="R59">
-        <v>0.681</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="S59">
         <v>125.003</v>
       </c>
-      <c r="T59" t="s">
-        <v>174</v>
-      </c>
-      <c r="U59" t="s">
-        <v>232</v>
-      </c>
-      <c r="V59" t="s">
-        <v>291</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y59">
+      <c r="T59">
         <v>190969</v>
       </c>
-      <c r="Z59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="U59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>228541</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E60">
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H60">
         <v>34</v>
@@ -6378,172 +4772,37 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>-7.219</v>
+        <v>-7.2190000000000003</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>0.0431</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="O60">
-        <v>0.0843</v>
+        <v>8.43E-2</v>
       </c>
       <c r="P60">
-        <v>2.3E-06</v>
+        <v>2.3E-6</v>
       </c>
       <c r="Q60">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="R60">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="S60">
         <v>125.974</v>
       </c>
-      <c r="T60" t="s">
-        <v>174</v>
-      </c>
-      <c r="U60" t="s">
-        <v>233</v>
-      </c>
-      <c r="V60" t="s">
-        <v>292</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y60">
+      <c r="T60">
         <v>216718</v>
       </c>
-      <c r="Z60">
+      <c r="U60">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1"/>
-    <hyperlink ref="X2" r:id="rId2"/>
-    <hyperlink ref="W3" r:id="rId3"/>
-    <hyperlink ref="X3" r:id="rId4"/>
-    <hyperlink ref="W4" r:id="rId5"/>
-    <hyperlink ref="X4" r:id="rId6"/>
-    <hyperlink ref="W5" r:id="rId7"/>
-    <hyperlink ref="X5" r:id="rId8"/>
-    <hyperlink ref="W6" r:id="rId9"/>
-    <hyperlink ref="X6" r:id="rId10"/>
-    <hyperlink ref="W7" r:id="rId11"/>
-    <hyperlink ref="X7" r:id="rId12"/>
-    <hyperlink ref="W8" r:id="rId13"/>
-    <hyperlink ref="X8" r:id="rId14"/>
-    <hyperlink ref="W9" r:id="rId15"/>
-    <hyperlink ref="X9" r:id="rId16"/>
-    <hyperlink ref="W10" r:id="rId17"/>
-    <hyperlink ref="X10" r:id="rId18"/>
-    <hyperlink ref="W11" r:id="rId19"/>
-    <hyperlink ref="X11" r:id="rId20"/>
-    <hyperlink ref="W12" r:id="rId21"/>
-    <hyperlink ref="X12" r:id="rId22"/>
-    <hyperlink ref="W13" r:id="rId23"/>
-    <hyperlink ref="X13" r:id="rId24"/>
-    <hyperlink ref="W14" r:id="rId25"/>
-    <hyperlink ref="X14" r:id="rId26"/>
-    <hyperlink ref="W15" r:id="rId27"/>
-    <hyperlink ref="X15" r:id="rId28"/>
-    <hyperlink ref="W16" r:id="rId29"/>
-    <hyperlink ref="X16" r:id="rId30"/>
-    <hyperlink ref="W17" r:id="rId31"/>
-    <hyperlink ref="X17" r:id="rId32"/>
-    <hyperlink ref="W18" r:id="rId33"/>
-    <hyperlink ref="X18" r:id="rId34"/>
-    <hyperlink ref="W19" r:id="rId35"/>
-    <hyperlink ref="X19" r:id="rId36"/>
-    <hyperlink ref="W20" r:id="rId37"/>
-    <hyperlink ref="X20" r:id="rId38"/>
-    <hyperlink ref="W21" r:id="rId39"/>
-    <hyperlink ref="X21" r:id="rId40"/>
-    <hyperlink ref="W22" r:id="rId41"/>
-    <hyperlink ref="X22" r:id="rId42"/>
-    <hyperlink ref="W23" r:id="rId43"/>
-    <hyperlink ref="X23" r:id="rId44"/>
-    <hyperlink ref="W24" r:id="rId45"/>
-    <hyperlink ref="X24" r:id="rId46"/>
-    <hyperlink ref="W25" r:id="rId47"/>
-    <hyperlink ref="X25" r:id="rId48"/>
-    <hyperlink ref="W26" r:id="rId49"/>
-    <hyperlink ref="X26" r:id="rId50"/>
-    <hyperlink ref="W27" r:id="rId51"/>
-    <hyperlink ref="X27" r:id="rId52"/>
-    <hyperlink ref="W28" r:id="rId53"/>
-    <hyperlink ref="X28" r:id="rId54"/>
-    <hyperlink ref="W29" r:id="rId55"/>
-    <hyperlink ref="X29" r:id="rId56"/>
-    <hyperlink ref="W30" r:id="rId57"/>
-    <hyperlink ref="X30" r:id="rId58"/>
-    <hyperlink ref="W31" r:id="rId59"/>
-    <hyperlink ref="X31" r:id="rId60"/>
-    <hyperlink ref="W32" r:id="rId61"/>
-    <hyperlink ref="X32" r:id="rId62"/>
-    <hyperlink ref="W33" r:id="rId63"/>
-    <hyperlink ref="X33" r:id="rId64"/>
-    <hyperlink ref="W34" r:id="rId65"/>
-    <hyperlink ref="X34" r:id="rId66"/>
-    <hyperlink ref="W35" r:id="rId67"/>
-    <hyperlink ref="X35" r:id="rId68"/>
-    <hyperlink ref="W36" r:id="rId69"/>
-    <hyperlink ref="X36" r:id="rId70"/>
-    <hyperlink ref="W37" r:id="rId71"/>
-    <hyperlink ref="X37" r:id="rId72"/>
-    <hyperlink ref="W38" r:id="rId73"/>
-    <hyperlink ref="X38" r:id="rId74"/>
-    <hyperlink ref="W39" r:id="rId75"/>
-    <hyperlink ref="X39" r:id="rId76"/>
-    <hyperlink ref="W40" r:id="rId77"/>
-    <hyperlink ref="X40" r:id="rId78"/>
-    <hyperlink ref="W41" r:id="rId79"/>
-    <hyperlink ref="X41" r:id="rId80"/>
-    <hyperlink ref="W42" r:id="rId81"/>
-    <hyperlink ref="X42" r:id="rId82"/>
-    <hyperlink ref="W43" r:id="rId83"/>
-    <hyperlink ref="X43" r:id="rId84"/>
-    <hyperlink ref="W44" r:id="rId85"/>
-    <hyperlink ref="X44" r:id="rId86"/>
-    <hyperlink ref="W45" r:id="rId87"/>
-    <hyperlink ref="X45" r:id="rId88"/>
-    <hyperlink ref="W46" r:id="rId89"/>
-    <hyperlink ref="X46" r:id="rId90"/>
-    <hyperlink ref="W47" r:id="rId91"/>
-    <hyperlink ref="X47" r:id="rId92"/>
-    <hyperlink ref="W48" r:id="rId93"/>
-    <hyperlink ref="X48" r:id="rId94"/>
-    <hyperlink ref="W49" r:id="rId95"/>
-    <hyperlink ref="X49" r:id="rId96"/>
-    <hyperlink ref="W50" r:id="rId97"/>
-    <hyperlink ref="X50" r:id="rId98"/>
-    <hyperlink ref="W51" r:id="rId99"/>
-    <hyperlink ref="X51" r:id="rId100"/>
-    <hyperlink ref="W52" r:id="rId101"/>
-    <hyperlink ref="X52" r:id="rId102"/>
-    <hyperlink ref="W53" r:id="rId103"/>
-    <hyperlink ref="X53" r:id="rId104"/>
-    <hyperlink ref="W54" r:id="rId105"/>
-    <hyperlink ref="X54" r:id="rId106"/>
-    <hyperlink ref="W55" r:id="rId107"/>
-    <hyperlink ref="X55" r:id="rId108"/>
-    <hyperlink ref="W56" r:id="rId109"/>
-    <hyperlink ref="X56" r:id="rId110"/>
-    <hyperlink ref="W57" r:id="rId111"/>
-    <hyperlink ref="X57" r:id="rId112"/>
-    <hyperlink ref="W58" r:id="rId113"/>
-    <hyperlink ref="X58" r:id="rId114"/>
-    <hyperlink ref="W59" r:id="rId115"/>
-    <hyperlink ref="X59" r:id="rId116"/>
-    <hyperlink ref="W60" r:id="rId117"/>
-    <hyperlink ref="X60" r:id="rId118"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>